--- a/biology/Botanique/Castanopsis/Castanopsis.xlsx
+++ b/biology/Botanique/Castanopsis/Castanopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Castanopsis est un genre d'arbres à feuillage persistant, appartenant à la famille des fagacées. 
 Le genre Castanopsis réunit environ 120 espèces, toutes originaires d'Asie tropicale et pénétropicale. Près de soixante espèces sont originaires de Chine, dont la moitié sont endémiques ; les autres espèces sont réparties plus au sud, de l'Indochine à l'Indonésie, ou plus à l'est comme en Corée et au Japon. La plupart sont des essences nobles très appréciées comme bois d'œuvre, et plusieurs d'entre elles produisent des glands comestibles.
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les arbres de ce genre sont tous sempervirents[2], c'est-à-dire à feuilles persistantes. Ces dernières sont produites par des bourgeons de forme ovoïde, et ont une disposition alterne, distique ou plus rarement spirale le long de la tige[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbres de ce genre sont tous sempervirents, c'est-à-dire à feuilles persistantes. Ces dernières sont produites par des bourgeons de forme ovoïde, et ont une disposition alterne, distique ou plus rarement spirale le long de la tige. 
 Les inflorescences sont généralement unisexuées, érigées, et sous forme d'épi ou de panicule : 
-Les fleurs mâles sont disposées en groupes de 3 à 7[2], ou plus rarement isolées. Leur périanthe présente 5 ou 6 lobes (jusqu'à 8)[2]. Les étamines, au nombre de 5 ou 6, jusqu'à 12[2], entourent un pistil vestigial non fonctionnel, recouvert de nombreux petits poils courbés d'aspect laineux.
-Les fleurs femelles peuvent être solitaires ou, comme les fleurs mâles, en groupes de 3 à 7[2]. Elles présentent parfois des étamines vestigiales staminodes. L’ovaire possède 3 loges et est surmonté de généralement 3 styles (mais parfois 2 ou 4)[2]. Ces derniers se terminent par un stigmate pouvant être punctiforme ou présenter des pores terminales peu profondes.
-Le fruit est composé d'une cupule, recouvertes plus ou moins densément de petites bractées de forme variable selon les espèces (écailles, épines ou tubercules), et entourant complètement ou partiellement un à trois akène(s)[2]. Ces akènes n'atteignent la maturité en 1 an que chez de rares espèces de ce genre, il leur faut généralement 2 ans pour cela[2].
+Les fleurs mâles sont disposées en groupes de 3 à 7, ou plus rarement isolées. Leur périanthe présente 5 ou 6 lobes (jusqu'à 8). Les étamines, au nombre de 5 ou 6, jusqu'à 12, entourent un pistil vestigial non fonctionnel, recouvert de nombreux petits poils courbés d'aspect laineux.
+Les fleurs femelles peuvent être solitaires ou, comme les fleurs mâles, en groupes de 3 à 7. Elles présentent parfois des étamines vestigiales staminodes. L’ovaire possède 3 loges et est surmonté de généralement 3 styles (mais parfois 2 ou 4). Ces derniers se terminent par un stigmate pouvant être punctiforme ou présenter des pores terminales peu profondes.
+Le fruit est composé d'une cupule, recouvertes plus ou moins densément de petites bractées de forme variable selon les espèces (écailles, épines ou tubercules), et entourant complètement ou partiellement un à trois akène(s). Ces akènes n'atteignent la maturité en 1 an que chez de rares espèces de ce genre, il leur faut généralement 2 ans pour cela.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du latin castanea qui désigne le châtaignier et de opsis, « ressemblant à ».
 </t>
@@ -578,7 +594,9 @@
           <t>Informations nomenclaturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Diagnose princeps : Castanopsis (D. Don) Spach, Hist. Nat. Veg. 11: 142, 185 (1841) ; [nom. conserv.]
 Basionyme : Quercus Castanopsis D. Don, Prodr. Fl. Nepal. 56 (1825) ; [inval.]
@@ -614,7 +632,9 @@
           <t>Noms indigènes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chinois : 锥栗属 [zhui shu]
 Japonais : シイ (scientifique) ou 椎 (littéraire) [shii]</t>
@@ -645,9 +665,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 août 2013)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 août 2013) :
 Castanopsis acuminatissima (Blume) A.DC. (1863)
 Castanopsis amabilis W.C.Cheng &amp; C.S.Chao (1963)
 Castanopsis annamensis Hickel &amp; A.Camus (1921 publ. 1922)
@@ -784,7 +806,7 @@
 Castanopsis wenchangensis G.A.Fu &amp; C.C.Huang (1989)
 Castanopsis wilsonii Hickel &amp; A.Camus (1926)
 Castanopsis xichouensis C.C.Huang &amp; Y.T.Chang (1990)
-Selon The Plant List            (18 août 2013)[4] :
+Selon The Plant List            (18 août 2013) :
 Castanopsis acuminatissima (Blume) A.DC.
 Castanopsis amabilis W.C.Cheng &amp; C.S.Chao
 Castanopsis annamensis Hickel &amp; A.Camus
@@ -950,7 +972,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>shiitaké</t>
         </is>
